--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,27 +46,27 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
@@ -76,193 +76,196 @@
     <t>guess</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>get</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>got</t>
+    <t>bought</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>learn</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>play</t>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -745,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>0.8392857142857143</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8009708737864077</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C5">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>0.6559139784946236</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -837,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,16 +869,16 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>0.6415094339622641</v>
+        <v>0.65625</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7795698924731183</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>0.578125</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -945,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7849462365591398</v>
+        <v>0.7572815533980582</v>
       </c>
       <c r="C8">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D8">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>0.4585726004922067</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="L8">
-        <v>559</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>560</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>660</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7746478873239436</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.4202898550724637</v>
+        <v>0.4446267432321575</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>542</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>543</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7162162162162162</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="C10">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.4166666666666667</v>
+        <v>0.4074605451936872</v>
       </c>
       <c r="L10">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M10">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1084,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6545454545454545</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>0.4107883817427386</v>
+        <v>0.3817427385892116</v>
       </c>
       <c r="L11">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="M11">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1137,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1145,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6458333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K12">
-        <v>0.35</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6386554621848739</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C13">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13">
-        <v>0.3302752293577982</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L13">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="M13">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>219</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,16 +1269,16 @@
         <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>0.3012048192771085</v>
+        <v>0.308868501529052</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1287,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>116</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1295,37 +1298,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5855072463768116</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C15">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15">
-        <v>0.2592592592592592</v>
+        <v>0.3</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5740740740740741</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,31 +1366,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>0.1975806451612903</v>
+        <v>0.2265625</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>199</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5578947368421052</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,31 +1416,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>0.1567567567567568</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5079365079365079</v>
+        <v>0.5354330708661418</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,31 +1466,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18">
-        <v>0.1528998242530756</v>
+        <v>0.1596119929453263</v>
       </c>
       <c r="L18">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M18">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>964</v>
+        <v>953</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1495,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5060240963855421</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K19">
-        <v>0.09192200557103064</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4921875</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,31 +1566,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K20">
-        <v>0.09096816114359974</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="L20">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1399</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.492063492063492</v>
+        <v>0.421875</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,31 +1616,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K21">
-        <v>0.04825737265415549</v>
+        <v>0.0859375</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="N21">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="O21">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>710</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,13 +1648,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4881889763779528</v>
+        <v>0.4123222748815166</v>
       </c>
       <c r="C22">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D22">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1663,7 +1666,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>65</v>
+        <v>124</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22">
+        <v>0.05300859598853868</v>
+      </c>
+      <c r="L22">
+        <v>37</v>
+      </c>
+      <c r="M22">
+        <v>44</v>
+      </c>
+      <c r="N22">
+        <v>0.84</v>
+      </c>
+      <c r="O22">
+        <v>0.16</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>661</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1671,13 +1698,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4218009478672986</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C23">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1689,7 +1716,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>122</v>
+        <v>53</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23">
+        <v>0.05241935483870968</v>
+      </c>
+      <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <v>47</v>
+      </c>
+      <c r="N23">
+        <v>0.83</v>
+      </c>
+      <c r="O23">
+        <v>0.17</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>705</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1697,13 +1748,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4108910891089109</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C24">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1715,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>119</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1723,13 +1774,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4044943820224719</v>
+        <v>0.3861386138613861</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1741,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1749,13 +1800,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3760683760683761</v>
+        <v>0.3504273504273504</v>
       </c>
       <c r="C26">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D26">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1767,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1775,13 +1826,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3071428571428572</v>
+        <v>0.3006329113924051</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1793,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>97</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1801,13 +1852,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3043478260869565</v>
+        <v>0.2929936305732484</v>
       </c>
       <c r="C28">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D28">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1819,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>192</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1827,13 +1878,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2993630573248408</v>
+        <v>0.29</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D29">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1845,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1853,13 +1904,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2989690721649484</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="C30">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D30">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1871,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1879,13 +1930,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2959183673469388</v>
+        <v>0.2803738317757009</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1897,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>69</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1905,13 +1956,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2879746835443038</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C32">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1923,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1931,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.273015873015873</v>
+        <v>0.2721518987341772</v>
       </c>
       <c r="C33">
         <v>86</v>
       </c>
       <c r="D33">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1957,25 +2008,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2633928571428572</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C34">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="E34">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>495</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1983,25 +2034,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2542372881355932</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>88</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2009,13 +2060,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2523364485981308</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2027,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2035,13 +2086,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2442528735632184</v>
+        <v>0.2538461538461538</v>
       </c>
       <c r="C37">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2053,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>263</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2061,25 +2112,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2412060301507538</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E38">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>151</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2087,13 +2138,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2404371584699453</v>
+        <v>0.2356828193832599</v>
       </c>
       <c r="C39">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D39">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>139</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2113,25 +2164,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.235632183908046</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="C40">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40">
         <v>42</v>
       </c>
       <c r="E40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2139,25 +2190,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2239467849223947</v>
+        <v>0.2198952879581152</v>
       </c>
       <c r="C41">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D41">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="E41">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>350</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2165,13 +2216,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1989528795811518</v>
+        <v>0.2040229885057471</v>
       </c>
       <c r="C42">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D42">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2183,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>153</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2191,25 +2242,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1979166666666667</v>
+        <v>0.1884816753926702</v>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2217,22 +2268,22 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1785714285714286</v>
+        <v>0.1808219178082192</v>
       </c>
       <c r="C44">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D44">
         <v>66</v>
       </c>
       <c r="E44">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>299</v>
@@ -2243,25 +2294,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1773584905660377</v>
+        <v>0.1781376518218623</v>
       </c>
       <c r="C45">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E45">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F45">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2269,25 +2320,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1714285714285714</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C46">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D46">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E46">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F46">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>261</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2295,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1538461538461539</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D47">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E47">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F47">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>165</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2321,25 +2372,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1510204081632653</v>
+        <v>0.1384180790960452</v>
       </c>
       <c r="C48">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E48">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F48">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>208</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2347,25 +2398,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1322869955156951</v>
+        <v>0.1260364842454395</v>
       </c>
       <c r="C49">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D49">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E49">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F49">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>387</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2373,25 +2424,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1218130311614731</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="C50">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D50">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E50">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F50">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>310</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2399,25 +2450,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1095571095571096</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="C51">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D51">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E51">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F51">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>382</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2425,25 +2476,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1079136690647482</v>
+        <v>0.1053864168618267</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D52">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E52">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="F52">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>248</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2451,25 +2502,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1072607260726073</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="C53">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D53">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E53">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F53">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>541</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2477,25 +2528,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.09438775510204081</v>
+        <v>0.09198113207547169</v>
       </c>
       <c r="C54">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="D54">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="E54">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F54">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>710</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2503,25 +2554,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08857142857142856</v>
+        <v>0.07672634271099744</v>
       </c>
       <c r="C55">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D55">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="E55">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="F55">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>319</v>
+        <v>722</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2529,25 +2580,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08487654320987655</v>
+        <v>0.07554671968190854</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D56">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E56">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="F56">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>593</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2555,51 +2606,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.07276995305164319</v>
+        <v>0.06933744221879815</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D57">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E57">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F57">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.06613226452905811</v>
-      </c>
-      <c r="C58">
-        <v>33</v>
-      </c>
-      <c r="D58">
-        <v>38</v>
-      </c>
-      <c r="E58">
-        <v>0.13</v>
-      </c>
-      <c r="F58">
-        <v>0.87</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>466</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
